--- a/medicine/Enfance/Louis_Émond_(écrivain,_1957)/Louis_Émond_(écrivain,_1957).xlsx
+++ b/medicine/Enfance/Louis_Émond_(écrivain,_1957)/Louis_Émond_(écrivain,_1957).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Louis_%C3%89mond_(%C3%A9crivain,_1957)</t>
+          <t>Louis_Émond_(écrivain,_1957)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Louis Émond est un écrivain pour la jeunesse québécois né le 13 février 1957 à Verdun (Montréal).
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Louis_%C3%89mond_(%C3%A9crivain,_1957)</t>
+          <t>Louis_Émond_(écrivain,_1957)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Louis Émond est né à Verdun en 1957, au sein d'une famille de sept enfants. Demeurant aujourd'hui à Saint-Bruno-de-Montarville, il est marié et père de deux filles et d'un fils. 
 Louis Émond fait ses études secondaires au Collège de Montréal, avant d'entrer au Collège André-Grasset. Durant ces années, Louis Émond découvre le théâtre, qui devient l'une de ses nombreuses passions. Hésitant à orienter sa carrière vers les arts, il part sillonner l'Europe durant plusieurs mois en 1976, un voyage formateur durant lequel il prendra la décision de devenir enseignant au primaire. Il s'inscrit donc au baccalauréat en enseignement à l'Université McGill. À la suite de ses études, il enseigne brièvement dans une école pré-maternelle anglophone, puis en 6e année du primaire pendant 22 ans, d'abord à Saint-Bruno-de-Montarville, puis à Saint-Basile-Le-Grand.
@@ -537,7 +551,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Louis_%C3%89mond_(%C3%A9crivain,_1957)</t>
+          <t>Louis_Émond_(écrivain,_1957)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -557,12 +571,51 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Albums
-Le monde de Théo (2011), Éditions Hurtubise
+          <t>Albums</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le monde de Théo (2011), Éditions Hurtubise
 L'étrange peur de monsieur Pampalon (2011), Éditions Héritage, Collection Dominique et cie
-Le jouet brisé (2015), Éditions de la Bagnole
-Romans
-Taxi en cavale (1992), Éditions Pierre Tisseyre, Collection Conquêtes. Réédition en 2005 chez Soulières Éditeur, Collection Graffiti.
+Le jouet brisé (2015), Éditions de la Bagnole</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Louis_Émond_(écrivain,_1957)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Louis_%C3%89mond_(%C3%A9crivain,_1957)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Taxi en cavale (1992), Éditions Pierre Tisseyre, Collection Conquêtes. Réédition en 2005 chez Soulières Éditeur, Collection Graffiti.
 Un si bel enfer (1993), Éditions Pierre Tisseyre, Collection Conquêtes. Réédition révisée en 2009.
 C'est parce que... (1997), Soulières Éditeur, Collection Ma petite vache a mal aux pattes.
 Les Trois Bonbons de monsieur Magnani (2000), Soulières Éditeur, Collection Ma petite vache a mal aux pattes.
@@ -570,15 +623,117 @@
 Une tonne et demie de bonbons (2010), Soulières Éditeur, Collection Ma petite vache a mal aux pattes.
 Trooooooooooop long ! (2011), Soulières Éditeur, Collection Ma petite vache a mal aux pattes.
 Trooooooooooop mou! (2013), Soulières Éditeur, Collection Ma petite vache a mal aux pattes.
-Trooooooooooop loin! (2015), Soulières Éditeur, Collection Ma petite vache a mal aux pattes.
-Pièces de théâtre
-Comme une ombre (1993), Québec Amérique, Collection Jeunesse Théâtre.
-Recueils de nouvelles
-La Guéguenille (1994), Éditions Pierre Tisseyre, Collection Conquêtes.
+Trooooooooooop loin! (2015), Soulières Éditeur, Collection Ma petite vache a mal aux pattes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Louis_Émond_(écrivain,_1957)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Louis_%C3%89mond_(%C3%A9crivain,_1957)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Pièces de théâtre</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Comme une ombre (1993), Québec Amérique, Collection Jeunesse Théâtre.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Louis_Émond_(écrivain,_1957)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Louis_%C3%89mond_(%C3%A9crivain,_1957)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Recueils de nouvelles</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>La Guéguenille (1994), Éditions Pierre Tisseyre, Collection Conquêtes.
 Trois séjours en sombres territoires (1996), Éditions Pierre Tisseyre, Collection Conquêtes. (Réédition en 2009)
-Quand la vie ne suffit pas (2006), Soulières Éditeur, Collection Graffiti.
-Nouvelles dans des anthologies
-Prisonnier des Malbrouks, dans La Planète des fous (1999), coédition Les Débrouillards/Soulières Éditeur, Collection Chat Débrouillard.
+Quand la vie ne suffit pas (2006), Soulières Éditeur, Collection Graffiti.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Louis_Émond_(écrivain,_1957)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Louis_%C3%89mond_(%C3%A9crivain,_1957)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Nouvelles dans des anthologies</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Prisonnier des Malbrouks, dans La Planète des fous (1999), coédition Les Débrouillards/Soulières Éditeur, Collection Chat Débrouillard.
 La Mystérieuse Armoire de Zénon Allard, dans La Mystérieuse Armoire de Zénon Allard et trois autres histoires (2000), coédition Les Débrouillards/Soulières Éditeur, Collection Chat Débrouillard.
 La Malédiction des triplés, dans Le Sphinx de l'autoroute (2000), coédition Les Débrouillards/Soulières Éditeur, Collection Chat Débrouillard.</t>
         </is>
